--- a/ConfigurationFiles/2-Score_weight_Cer.xlsx
+++ b/ConfigurationFiles/2-Score_weight_Cer.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Weight</t>
   </si>
@@ -52,6 +52,18 @@
   </si>
   <si>
     <t>FA1_[LCB-H2O-CH2O+H]+</t>
+  </si>
+  <si>
+    <t>FA1_[LCB-3xH2O+H]+</t>
+  </si>
+  <si>
+    <t>FA1_[LCB-2xH2O-CH2O+H]+</t>
+  </si>
+  <si>
+    <t>[M-3xH2O+H]+</t>
+  </si>
+  <si>
+    <t>[M-2xH2O-CH2O+H]+</t>
   </si>
 </sst>
 </file>
@@ -403,10 +415,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -430,7 +442,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>5</v>
+        <v>20.5</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -441,7 +453,7 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>10</v>
+        <v>20.5</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -452,7 +464,7 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>30</v>
+        <v>20.5</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -460,10 +472,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -471,10 +483,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -482,34 +494,78 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>30</v>
+        <v>0.5</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
         <v>8</v>
       </c>
-      <c r="B8">
-        <v>10</v>
-      </c>
       <c r="C8">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>20.5</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>4</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
         <v>9</v>
       </c>
-      <c r="B9">
-        <v>5</v>
-      </c>
-      <c r="C9">
+      <c r="B12">
+        <v>0.5</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13">
+        <v>0.5</v>
+      </c>
+      <c r="C13">
         <v>2</v>
       </c>
     </row>

--- a/ConfigurationFiles/2-Score_weight_Cer.xlsx
+++ b/ConfigurationFiles/2-Score_weight_Cer.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12651"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="5" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="23">
   <si>
     <t>Weight</t>
   </si>
@@ -64,6 +64,30 @@
   </si>
   <si>
     <t>[M-2xH2O-CH2O+H]+</t>
+  </si>
+  <si>
+    <t>SPB</t>
+  </si>
+  <si>
+    <t>Details</t>
+  </si>
+  <si>
+    <t>Weight which will be use for the SBP with 1 -OH</t>
+  </si>
+  <si>
+    <t>Weight which will be use for the SBP with 3 -OH</t>
+  </si>
+  <si>
+    <t>Weight which will be use for the SBP with 2 -OH</t>
+  </si>
+  <si>
+    <t># Weight which will be use for the SBP with 1 -OH</t>
+  </si>
+  <si>
+    <t># Weight which will be use for the SBP with 2 -OH</t>
+  </si>
+  <si>
+    <t># Weight which will be use for the SBP with 3 -OH</t>
   </si>
 </sst>
 </file>
@@ -415,18 +439,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.07421875" customWidth="1"/>
+    <col min="5" max="5" width="40.61328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -436,21 +461,21 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2">
-        <v>20.5</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3">
         <v>20.5</v>
@@ -458,10 +483,16 @@
       <c r="C3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4">
         <v>20.5</v>
@@ -469,108 +500,364 @@
       <c r="C4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>20.5</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <v>3.3</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9">
+        <v>26.6</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10">
+        <v>26.6</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12">
+        <v>3.3</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13">
+        <v>26.6</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14">
+        <v>10</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15">
+        <v>3.3</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17">
+        <v>5.16</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
+      </c>
+      <c r="E17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18">
+        <v>21</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>3</v>
+      </c>
+      <c r="E18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19">
+        <v>21</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
+      </c>
+      <c r="E19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
         <v>11</v>
       </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6">
+      <c r="B20">
+        <v>21</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>3</v>
+      </c>
+      <c r="E20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21">
         <v>0.5</v>
       </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7">
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>3</v>
+      </c>
+      <c r="E21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22">
         <v>0.5</v>
       </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
+      <c r="C22">
+        <v>3</v>
+      </c>
+      <c r="D22">
+        <v>3</v>
+      </c>
+      <c r="E22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="D23">
+        <v>3</v>
+      </c>
+      <c r="E23" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
         <v>8</v>
       </c>
-      <c r="C8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9">
-        <v>20.5</v>
-      </c>
-      <c r="C9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>4</v>
-      </c>
-      <c r="C10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A11" t="s">
+      <c r="B24">
+        <v>5.16</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="D24">
+        <v>3</v>
+      </c>
+      <c r="E24" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
         <v>13</v>
       </c>
-      <c r="B11">
-        <v>2</v>
-      </c>
-      <c r="C11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12">
+      <c r="B25">
+        <v>5.16</v>
+      </c>
+      <c r="C25">
+        <v>2</v>
+      </c>
+      <c r="D25">
+        <v>3</v>
+      </c>
+      <c r="E25" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26">
         <v>0.5</v>
       </c>
-      <c r="C12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13">
-        <v>0.5</v>
-      </c>
-      <c r="C13">
-        <v>2</v>
+      <c r="C26">
+        <v>2</v>
+      </c>
+      <c r="D26">
+        <v>3</v>
+      </c>
+      <c r="E26" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/ConfigurationFiles/2-Score_weight_Cer.xlsx
+++ b/ConfigurationFiles/2-Score_weight_Cer.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12651"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="5" r:id="rId1"/>
+    <sheet name="Cer" sheetId="5" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -442,16 +442,16 @@
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.07421875" customWidth="1"/>
-    <col min="5" max="5" width="40.61328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.109375" customWidth="1"/>
+    <col min="5" max="5" width="40.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -468,12 +468,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -490,7 +490,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -507,7 +507,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -524,7 +524,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -541,12 +541,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -563,7 +563,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -580,7 +580,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -597,7 +597,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -614,7 +614,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -631,7 +631,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -648,7 +648,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -665,7 +665,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>9</v>
       </c>
@@ -682,12 +682,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>3</v>
       </c>
@@ -704,7 +704,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -721,7 +721,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>5</v>
       </c>
@@ -738,7 +738,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>11</v>
       </c>
@@ -755,7 +755,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>12</v>
       </c>
@@ -772,7 +772,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>7</v>
       </c>
@@ -789,7 +789,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>6</v>
       </c>
@@ -806,7 +806,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>8</v>
       </c>
@@ -823,7 +823,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>13</v>
       </c>
@@ -840,7 +840,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>14</v>
       </c>
